--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -1,25 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="7580" yWindow="3100" windowWidth="38160" windowHeight="21120"/>
-  </bookViews>
-  <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="queries" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
@@ -2761,128 +2739,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <v>20130408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1"/>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A27" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -1,3 +1,25 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="7580" yWindow="3100" windowWidth="38160" windowHeight="21120"/>
+  </bookViews>
+  <sheets>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="queries" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
@@ -2739,4 +2761,128 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\selects\forms\selects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3100" windowWidth="38160" windowHeight="21120"/>
+    <workbookView xWindow="7580" yWindow="3103" windowWidth="38160" windowHeight="21116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -204,9 +209,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>selects</t>
   </si>
   <si>
@@ -697,6 +699,9 @@
   </si>
   <si>
     <t>buttonLabel</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1051,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1340,29 +1348,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1371,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1380,77 +1388,77 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" t="s">
-        <v>146</v>
-      </c>
       <c r="N1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="P1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" t="s">
-        <v>208</v>
-      </c>
       <c r="R1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" t="s">
         <v>210</v>
       </c>
-      <c r="S1" t="s">
-        <v>211</v>
-      </c>
       <c r="T1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
         <v>132</v>
       </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>56</v>
@@ -1459,28 +1467,28 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1488,36 +1496,36 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
         <v>193</v>
       </c>
-      <c r="H7" t="s">
-        <v>194</v>
-      </c>
       <c r="V7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" t="s">
         <v>136</v>
       </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1525,10 +1533,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -1537,19 +1545,19 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>11</v>
@@ -1561,256 +1569,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>43</v>
@@ -1819,69 +1827,69 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" t="s">
         <v>195</v>
-      </c>
-      <c r="G43" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" t="s">
-        <v>196</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>38</v>
@@ -1896,13 +1904,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>56</v>
@@ -1914,190 +1922,190 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1">
+    <row r="51" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>89</v>
       </c>
-      <c r="H52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>92</v>
       </c>
-      <c r="H53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1">
+    <row r="57" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="17.5" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="7" t="s">
         <v>9</v>
@@ -2106,7 +2114,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:15" ht="17.5" customHeight="1">
+    <row r="62" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62"/>
       <c r="D62" s="7" t="s">
@@ -2114,69 +2122,69 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.5" customHeight="1">
+    <row r="63" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63"/>
       <c r="D63" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" s="7"/>
       <c r="G63" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" t="s">
         <v>168</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="N63" t="s">
         <v>169</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>170</v>
       </c>
-      <c r="O63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="17.5" customHeight="1">
+    </row>
+    <row r="64" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64"/>
       <c r="D64" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="7"/>
       <c r="G64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:21" ht="17.5" customHeight="1">
+    <row r="65" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" t="s">
         <v>174</v>
       </c>
-      <c r="G65" t="s">
-        <v>175</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:21" ht="17.5" customHeight="1">
+    <row r="66" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="7" t="s">
         <v>14</v>
@@ -2185,95 +2193,95 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:21" ht="17.5" customHeight="1">
+    <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E67" s="7"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="12.75" customHeight="1">
+    <row r="68" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="12.75" customHeight="1">
+    <row r="69" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="12.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="12.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="12.75" customHeight="1">
+    <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2295,26 +2303,26 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.75" customHeight="1">
+    <row r="1" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.75" customHeight="1">
+    <row r="3" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.75" customHeight="1">
+    <row r="4" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.75" customHeight="1">
+    <row r="5" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.75" customHeight="1">
+    <row r="6" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2369,18 +2377,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.75" customHeight="1">
+    <row r="7" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.75" customHeight="1">
+    <row r="9" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2402,19 +2410,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.75" customHeight="1">
+    <row r="10" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="12" spans="1:4" ht="16.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.75" customHeight="1">
+    <row r="13" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2436,8 +2444,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="15" spans="1:4" ht="16.75" customHeight="1">
+    <row r="14" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.75" customHeight="1">
+    <row r="16" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.75" customHeight="1">
+    <row r="17" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2470,148 +2478,148 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.75" customHeight="1">
+    <row r="18" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
         <v>185</v>
       </c>
-      <c r="D18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
         <v>187</v>
       </c>
-      <c r="D19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
         <v>182</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2633,19 +2641,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" customWidth="1"/>
+    <col min="1" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="87.375" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" customHeight="1">
+    <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -2654,102 +2662,102 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1">
+    <row r="2" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.25" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>199</v>
       </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>202</v>
       </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
         <v>205</v>
       </c>
-      <c r="D7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
-      </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2767,114 +2775,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B3">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1"/>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+    <row r="12" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+    <row r="14" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+    <row r="15" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+    <row r="19" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+    <row r="20" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+    <row r="21" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+    <row r="25" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+    <row r="26" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+    <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
   </sheetData>

--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3103" windowWidth="38160" windowHeight="21116" activeTab="3"/>
+    <workbookView xWindow="7580" yWindow="3103" windowWidth="38160" windowHeight="21116"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="221">
   <si>
     <t>comments</t>
   </si>
@@ -221,9 +221,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
   </si>
   <si>
     <t>end if</t>
-  </si>
-  <si>
-    <t>display.hint</t>
   </si>
   <si>
     <t>values_list</t>
@@ -474,12 +468,6 @@
     <t>Kingfisher selected</t>
   </si>
   <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.video</t>
-  </si>
-  <si>
     <t>media/kingfisher.3gp</t>
   </si>
   <si>
@@ -580,9 +568,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
   </si>
   <si>
     <t>male</t>
@@ -698,16 +683,34 @@
     <t>Record Location</t>
   </si>
   <si>
-    <t>buttonLabel</t>
-  </si>
-  <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.prompt.video</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.button_label.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1102,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,9 +1138,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,6 +1190,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1348,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1363,6 +1400,10 @@
     <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
     <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="23.25" customWidth="1"/>
+    <col min="13" max="13" width="22.375" customWidth="1"/>
+    <col min="15" max="15" width="29.875" customWidth="1"/>
+    <col min="22" max="22" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1379,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1388,49 +1429,49 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" t="s">
         <v>209</v>
       </c>
-      <c r="S1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T1" t="s">
-        <v>214</v>
-      </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,14 +1484,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>56</v>
@@ -1467,25 +1508,25 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,30 +1540,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,7 +1577,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -1545,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1572,16 +1613,16 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1599,16 +1640,16 @@
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,28 +1658,28 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1647,28 +1688,28 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1686,16 +1727,16 @@
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,28 +1745,28 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1734,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1743,16 +1784,16 @@
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1770,16 +1811,16 @@
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,19 +1829,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1859,7 @@
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>43</v>
@@ -1827,28 +1868,28 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H41" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -1859,13 +1900,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" t="s">
         <v>190</v>
-      </c>
-      <c r="H43" t="s">
-        <v>195</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1874,7 +1915,7 @@
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1886,10 +1927,10 @@
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>38</v>
@@ -1907,10 +1948,10 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>56</v>
@@ -1925,40 +1966,40 @@
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -1967,79 +2008,79 @@
     <row r="51" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
         <v>87</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
         <v>90</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2048,61 +2089,61 @@
     <row r="57" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="G58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,7 +2163,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
@@ -2133,37 +2174,37 @@
       <c r="A63" s="2"/>
       <c r="B63"/>
       <c r="D63" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E63" s="7"/>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N63" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O63" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64"/>
       <c r="D64" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E64" s="7"/>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I64" s="5"/>
     </row>
@@ -2171,16 +2212,16 @@
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="I65" s="5"/>
     </row>
@@ -2196,10 +2237,10 @@
     <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E67" s="7"/>
       <c r="H67" s="5"/>
@@ -2208,28 +2249,28 @@
     <row r="68" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
         <v>196</v>
       </c>
-      <c r="E68" t="s">
-        <v>201</v>
-      </c>
       <c r="H68" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q68" t="s">
+        <v>206</v>
+      </c>
+      <c r="R68" t="s">
+        <v>163</v>
+      </c>
+      <c r="S68" t="s">
+        <v>168</v>
+      </c>
+      <c r="T68" t="s">
         <v>211</v>
-      </c>
-      <c r="R68" t="s">
-        <v>167</v>
-      </c>
-      <c r="S68" t="s">
-        <v>172</v>
-      </c>
-      <c r="T68" t="s">
-        <v>216</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
@@ -2238,42 +2279,42 @@
     <row r="69" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q71" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S71" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2281,7 +2322,7 @@
     </row>
     <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2310,16 +2351,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,10 +2423,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,10 +2456,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2483,10 +2524,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,132 +2535,132 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2650,10 +2691,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -2667,13 +2708,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2681,13 +2722,13 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2695,13 +2736,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2709,55 +2750,55 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2775,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2792,12 +2833,12 @@
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
@@ -2814,7 +2855,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>

--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3103" windowWidth="38160" windowHeight="21116"/>
+    <workbookView xWindow="7580" yWindow="3103" windowWidth="38160" windowHeight="21116" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
   <si>
     <t>comments</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>clause</t>
@@ -705,6 +699,9 @@
   </si>
   <si>
     <t>display.button_label.text</t>
+  </si>
+  <si>
+    <t>display.title.image</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -1411,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1420,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1429,49 +1426,49 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" t="s">
         <v>218</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R1" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" t="s">
-        <v>205</v>
-      </c>
-      <c r="T1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1484,14 +1481,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>56</v>
@@ -1508,25 +1505,25 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,30 +1537,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,7 +1574,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -1586,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1613,16 +1610,16 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1640,16 +1637,16 @@
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1658,28 +1655,28 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,28 +1685,28 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1727,16 +1724,16 @@
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,28 +1742,28 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1784,16 +1781,16 @@
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1811,16 +1808,16 @@
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,19 +1826,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1856,7 @@
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>43</v>
@@ -1868,28 +1865,28 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -1900,13 +1897,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1915,7 +1912,7 @@
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1927,10 +1924,10 @@
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>38</v>
@@ -1948,10 +1945,10 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>56</v>
@@ -1966,40 +1963,40 @@
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2008,79 +2005,79 @@
     <row r="51" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
         <v>85</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
         <v>88</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2089,61 +2086,61 @@
     <row r="57" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,7 +2160,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
@@ -2174,37 +2171,37 @@
       <c r="A63" s="2"/>
       <c r="B63"/>
       <c r="D63" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="7"/>
       <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" t="s">
+        <v>162</v>
+      </c>
+      <c r="N63" t="s">
         <v>163</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="O63" t="s">
         <v>164</v>
-      </c>
-      <c r="N63" t="s">
-        <v>165</v>
-      </c>
-      <c r="O63" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64"/>
       <c r="D64" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E64" s="7"/>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I64" s="5"/>
     </row>
@@ -2212,16 +2209,16 @@
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I65" s="5"/>
     </row>
@@ -2237,10 +2234,10 @@
     <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E67" s="7"/>
       <c r="H67" s="5"/>
@@ -2249,28 +2246,28 @@
     <row r="68" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
@@ -2279,42 +2276,42 @@
     <row r="69" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>204</v>
+      </c>
+      <c r="R71" t="s">
+        <v>161</v>
+      </c>
+      <c r="S71" t="s">
+        <v>166</v>
+      </c>
+      <c r="T71" t="s">
         <v>208</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>206</v>
-      </c>
-      <c r="R71" t="s">
-        <v>163</v>
-      </c>
-      <c r="S71" t="s">
-        <v>168</v>
-      </c>
-      <c r="T71" t="s">
-        <v>210</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2322,7 +2319,7 @@
     </row>
     <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2340,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2357,10 +2354,10 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,10 +2420,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,10 +2453,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2524,10 +2521,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,132 +2532,132 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -2708,13 +2705,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,13 +2719,13 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2736,13 +2733,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,55 +2747,55 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2833,12 +2830,12 @@
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>

--- a/app/config/tables/selects/forms/selects/selects.xlsx
+++ b/app/config/tables/selects/forms/selects/selects.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="218">
   <si>
     <t>comments</t>
   </si>
@@ -254,28 +254,6 @@
     <t>hideInContents</t>
   </si>
   <si>
-    <t>context.query.results ? _.map(context.query.results.place, function(place){
-place.label = place.name;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
-}) : []</t>
-  </si>
-  <si>
-    <t>_.chain(context).pluck('region').uniq().map(function(region){
-return {name:region, label:region, data_value:region, display:{text:region}};
-}).value()</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-place.name = place.country;
-place.label = place.country;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
-})</t>
-  </si>
-  <si>
     <t>country_csv</t>
   </si>
   <si>
@@ -610,12 +588,6 @@
   </si>
   <si>
     <t>linegraph</t>
-  </si>
-  <si>
-    <t>linegraph_csv</t>
-  </si>
-  <si>
-    <t>"linegraph.csv"</t>
   </si>
   <si>
     <t>_.map(context, function(place){
@@ -702,6 +674,22 @@
   </si>
   <si>
     <t>display.title.image</t>
+  </si>
+  <si>
+    <t>context.query.results ? _.map(context.query.results.place, function(place){
+return { data_value : place.name,
+              display : {title: {text: place.name} } };
+}) : []</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('region').uniq().map(function(region){
+return {data_value: region, display: {title: {text: region} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { region: place.region, data_value: place.country, display: {title: {text: place.country} } };
+})</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -1426,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -1438,37 +1426,37 @@
         <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="R1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" t="s">
         <v>202</v>
-      </c>
-      <c r="S1" t="s">
-        <v>203</v>
-      </c>
-      <c r="T1" t="s">
-        <v>207</v>
       </c>
       <c r="U1" t="s">
         <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,14 +1469,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>56</v>
@@ -1505,25 +1493,25 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1537,30 +1525,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1574,7 +1562,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -1583,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,7 +1607,7 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1646,7 +1634,7 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,13 +1643,13 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,7 +1664,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1685,19 +1673,19 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,7 +1694,7 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1733,7 +1721,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1763,7 +1751,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1790,7 +1778,7 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1817,7 +1805,7 @@
         <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,19 +1814,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,22 +1853,22 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,13 +1885,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1924,7 +1912,7 @@
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>72</v>
@@ -1945,7 +1933,7 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>72</v>
@@ -1963,40 +1951,40 @@
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2005,79 +1993,79 @@
     <row r="51" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" t="s">
-        <v>82</v>
-      </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
         <v>81</v>
       </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2086,61 +2074,61 @@
     <row r="57" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="G57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
         <v>103</v>
-      </c>
-      <c r="H57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" t="s">
         <v>104</v>
-      </c>
-      <c r="H58" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" t="s">
         <v>105</v>
-      </c>
-      <c r="H59" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,7 +2148,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
@@ -2171,37 +2159,37 @@
       <c r="A63" s="2"/>
       <c r="B63"/>
       <c r="D63" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E63" s="7"/>
       <c r="G63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" t="s">
+        <v>159</v>
+      </c>
+      <c r="N63" t="s">
+        <v>160</v>
+      </c>
+      <c r="O63" t="s">
         <v>161</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I63" t="s">
-        <v>162</v>
-      </c>
-      <c r="N63" t="s">
-        <v>163</v>
-      </c>
-      <c r="O63" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64"/>
       <c r="D64" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E64" s="7"/>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I64" s="5"/>
     </row>
@@ -2212,13 +2200,13 @@
         <v>72</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I65" s="5"/>
     </row>
@@ -2237,7 +2225,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E67" s="7"/>
       <c r="H67" s="5"/>
@@ -2246,28 +2234,28 @@
     <row r="68" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="D68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" t="s">
         <v>189</v>
       </c>
-      <c r="E68" t="s">
-        <v>194</v>
-      </c>
       <c r="H68" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q68" t="s">
+        <v>199</v>
+      </c>
+      <c r="R68" t="s">
+        <v>158</v>
+      </c>
+      <c r="S68" t="s">
+        <v>163</v>
+      </c>
+      <c r="T68" t="s">
         <v>204</v>
-      </c>
-      <c r="R68" t="s">
-        <v>161</v>
-      </c>
-      <c r="S68" t="s">
-        <v>166</v>
-      </c>
-      <c r="T68" t="s">
-        <v>209</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
@@ -2285,33 +2273,33 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q71" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="R71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2338,7 +2326,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2354,10 +2342,10 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2420,10 +2408,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2453,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2521,10 +2509,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,132 +2520,132 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2679,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -2705,13 +2693,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2719,13 +2707,13 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,13 +2721,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,55 +2735,41 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2830,12 +2804,12 @@
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
